--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.676</v>
+        <v>-11.6362</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.444199999999996</v>
+        <v>5.547899999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.74950000000001</v>
+        <v>-21.72270000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.321699999999997</v>
+        <v>5.403</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.748200000000002</v>
+        <v>5.836799999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.70269999999999</v>
+        <v>-13.74210000000001</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.26280000000002</v>
+        <v>-22.28170000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.60879999999999</v>
+        <v>-19.57149999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.902500000000001</v>
+        <v>4.069500000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.77189999999998</v>
+        <v>-21.97349999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>5.480600000000005</v>
+        <v>5.527100000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.808899999999996</v>
+        <v>4.836499999999997</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.77649999999999</v>
+        <v>-11.44829999999999</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.25249999999999</v>
+        <v>-19.11369999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.30390000000001</v>
+        <v>-12.22610000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.766800000000003</v>
+        <v>9.082500000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.552299999999999</v>
+        <v>4.767799999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.25980000000001</v>
+        <v>-12.64160000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.43159999999999</v>
+        <v>-13.4694</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.3744</v>
+        <v>-13.28639999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.93359999999999</v>
+        <v>-12.06309999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.286700000000004</v>
+        <v>6.156400000000004</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.8192</v>
+        <v>-11.6858</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.149799999999998</v>
+        <v>5.240099999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.849299999999998</v>
+        <v>5.006099999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.60529999999999</v>
+        <v>-14.09259999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.7496</v>
+        <v>-11.8088</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64670000000001</v>
+        <v>-21.7043</v>
       </c>
       <c r="B69" t="n">
-        <v>5.329199999999997</v>
+        <v>5.389899999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.083600000000007</v>
+        <v>5.972900000000003</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.81049999999999</v>
+        <v>-11.713</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.84659999999998</v>
+        <v>-19.70639999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.12109999999999</v>
+        <v>-20.03069999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.459000000000003</v>
+        <v>5.6787</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.88900000000001</v>
+        <v>-21.8314</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.10210000000001</v>
+        <v>-21.9685</v>
       </c>
       <c r="B83" t="n">
-        <v>6.1375</v>
+        <v>6.829800000000006</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-11.72089999999999</v>
+        <v>-12.095</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.52069999999997</v>
+        <v>-20.69129999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.1099</v>
+        <v>-12.44089999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.655900000000008</v>
+        <v>8.667300000000004</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
